--- a/static/excel/Deepak pradhan_CAR.xlsx
+++ b/static/excel/Deepak pradhan_CAR.xlsx
@@ -11,7 +11,6 @@
     <sheet name="Pivot data" sheetId="2" state="visible" r:id="rId2"/>
     <sheet name="Info" sheetId="3" state="visible" r:id="rId3"/>
     <sheet name="Recommendation" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="Case 1" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -661,10 +660,10 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>60000</v>
+        <v>12500</v>
       </c>
       <c r="H2" t="n">
-        <v>31953</v>
+        <v>-15547</v>
       </c>
     </row>
     <row r="3">
@@ -689,10 +688,10 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>60000</v>
+        <v>12500</v>
       </c>
       <c r="H3" t="n">
-        <v>31953</v>
+        <v>-15547</v>
       </c>
     </row>
     <row r="4">
@@ -717,10 +716,10 @@
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>60000</v>
+        <v>12500</v>
       </c>
       <c r="H4" t="n">
-        <v>31953</v>
+        <v>-15547</v>
       </c>
     </row>
   </sheetData>
@@ -769,7 +768,7 @@
         <v>696</v>
       </c>
       <c r="C2" t="n">
-        <v>100000</v>
+        <v>25000</v>
       </c>
     </row>
   </sheetData>
@@ -801,59 +800,8 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t xml:space="preserve">You can get a top up on Personal Loan based on the amount you have already paid for. You are eligible for a new Personal Loan of ₹1343131. </t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B3"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Sentence</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>Top up Personal Loan</t>
-        </is>
-      </c>
-      <c r="B2" t="n">
-        <v>592124</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>New Personal Loan</t>
-        </is>
-      </c>
-      <c r="B3" t="n">
-        <v>1343131</v>
+          <t xml:space="preserve">You are not eligible for a new Personal Loan. </t>
+        </is>
       </c>
     </row>
   </sheetData>
